--- a/Banco de Dados/Normalização/BD-Exercicio 1-Normalizacao.xlsx
+++ b/Banco de Dados/Normalização/BD-Exercicio 1-Normalizacao.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Kojin\2019\Bandtec\BD-1sem\Aulas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\BandTec\bandtec-git\Banco de Dados\Normalização\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC12D4E0-6265-4B4D-800E-15289918D95B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7050"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Desnormalizado" sheetId="1" r:id="rId1"/>
     <sheet name="1FN" sheetId="2" r:id="rId2"/>
+    <sheet name="2FN" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="55">
   <si>
     <t>NOTA_FISCAL</t>
   </si>
   <si>
-    <t>NroNota</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
@@ -72,9 +71,6 @@
     <t>ValorTotal</t>
   </si>
   <si>
-    <t>Benedito Oliveira</t>
-  </si>
-  <si>
     <t>Alameda Santos, 45, Paraíso, CEP 01389-5, São Paulo, SP</t>
   </si>
   <si>
@@ -84,39 +80,18 @@
     <t xml:space="preserve">100 - Mouse - 3 - 50,00                                110 - Pendrive 32GB - 2 - 100,00              </t>
   </si>
   <si>
-    <t>TipoLogradCliente</t>
-  </si>
-  <si>
     <t>Rua</t>
   </si>
   <si>
     <t>Alameda</t>
   </si>
   <si>
-    <t>NomeLogradCliente</t>
-  </si>
-  <si>
     <t>Haddock Lobo</t>
   </si>
   <si>
     <t>Santos</t>
   </si>
   <si>
-    <t>NroLogradCliente</t>
-  </si>
-  <si>
-    <t>BairroCliente</t>
-  </si>
-  <si>
-    <t>CEP_Cliente</t>
-  </si>
-  <si>
-    <t>Cidade_Cliente</t>
-  </si>
-  <si>
-    <t>UF_Cliente</t>
-  </si>
-  <si>
     <t>Consolação</t>
   </si>
   <si>
@@ -135,44 +110,95 @@
     <t>SP</t>
   </si>
   <si>
-    <t>Estela</t>
-  </si>
-  <si>
-    <t>TipoLogradEntrega</t>
-  </si>
-  <si>
-    <t>NomeLogradEntrega</t>
-  </si>
-  <si>
-    <t>NroLogradEntrega</t>
-  </si>
-  <si>
-    <t>BairroEntrega</t>
-  </si>
-  <si>
-    <t>CEP_Entrega</t>
-  </si>
-  <si>
-    <t>UF_Entrega</t>
-  </si>
-  <si>
-    <t>Cidade_Entrega</t>
-  </si>
-  <si>
-    <t>ITEM_NOTAFISCAL</t>
-  </si>
-  <si>
     <t>Faculdade Bandtec</t>
   </si>
   <si>
     <t>Faculdade XYZ</t>
+  </si>
+  <si>
+    <t>NumNota</t>
+  </si>
+  <si>
+    <t>nome_item</t>
+  </si>
+  <si>
+    <t>qtd_item</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Pendrive</t>
+  </si>
+  <si>
+    <t>Notebook</t>
+  </si>
+  <si>
+    <t>Id_Item</t>
+  </si>
+  <si>
+    <t>END_CLIENTE</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>endereco</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>bairro</t>
+  </si>
+  <si>
+    <t>CEP</t>
+  </si>
+  <si>
+    <t>cidade</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estela </t>
+  </si>
+  <si>
+    <t>Id_endereço</t>
+  </si>
+  <si>
+    <t>END_ENTREGA</t>
+  </si>
+  <si>
+    <t>ITENS_NOTA</t>
+  </si>
+  <si>
+    <t>preco_item</t>
+  </si>
+  <si>
+    <t>ITENS_NOTA_FISCAL</t>
+  </si>
+  <si>
+    <t>PRODUTOS</t>
+  </si>
+  <si>
+    <t>Id_produto</t>
+  </si>
+  <si>
+    <t>nome_produto</t>
+  </si>
+  <si>
+    <t>qtd_ptoduto</t>
+  </si>
+  <si>
+    <t>preco_produto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,8 +206,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Exo 2"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Exo 2"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Exo 2"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Exo 2"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,18 +256,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -224,11 +363,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -239,16 +402,119 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="16">
+    <cellStyle name="20% - Ênfase1" xfId="2" builtinId="30"/>
+    <cellStyle name="20% - Ênfase2" xfId="5" builtinId="34"/>
+    <cellStyle name="20% - Ênfase3" xfId="8" builtinId="38"/>
+    <cellStyle name="20% - Ênfase4" xfId="11" builtinId="42"/>
+    <cellStyle name="20% - Ênfase6" xfId="14" builtinId="50"/>
+    <cellStyle name="40% - Ênfase1" xfId="3" builtinId="31"/>
+    <cellStyle name="40% - Ênfase2" xfId="6" builtinId="35"/>
+    <cellStyle name="60% - Ênfase3" xfId="9" builtinId="40"/>
+    <cellStyle name="60% - Ênfase4" xfId="12" builtinId="44"/>
+    <cellStyle name="60% - Ênfase6" xfId="15" builtinId="52"/>
+    <cellStyle name="Ênfase1" xfId="1" builtinId="29"/>
+    <cellStyle name="Ênfase2" xfId="4" builtinId="33"/>
+    <cellStyle name="Ênfase3" xfId="7" builtinId="37"/>
+    <cellStyle name="Ênfase4" xfId="10" builtinId="41"/>
+    <cellStyle name="Ênfase6" xfId="13" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -526,11 +792,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,34 +820,34 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -595,22 +861,22 @@
         <v>2000</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2">
         <v>50000</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="J6" s="5">
         <v>2700</v>
@@ -627,22 +893,22 @@
         <v>2100</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2">
         <v>50500</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="J7" s="5">
         <v>350</v>
@@ -655,245 +921,719 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:V10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B3:I23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="35.7109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="35">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>43605</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="35">
+        <v>50000</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="18">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="35">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13">
+        <v>43607</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="35">
+        <v>50500</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="18">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="37">
+        <v>1</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="28">
+        <v>268</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="37">
+        <v>2</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="28">
+        <v>45</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="36">
+        <v>1</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="17">
+        <v>595</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="36">
+        <v>2</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="17">
+        <v>45</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="G18" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="14">
+        <v>100</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="15">
+        <v>5</v>
+      </c>
+      <c r="E20" s="15">
+        <v>50</v>
+      </c>
+      <c r="G20" s="16">
+        <v>1</v>
+      </c>
+      <c r="H20" s="16">
+        <v>2000</v>
+      </c>
+      <c r="I20" s="16">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="14">
+        <v>110</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="15">
+        <v>3</v>
+      </c>
+      <c r="E21" s="15">
+        <v>100</v>
+      </c>
+      <c r="G21" s="16">
+        <v>1</v>
+      </c>
+      <c r="H21" s="16">
+        <v>2100</v>
+      </c>
+      <c r="I21" s="16">
+        <v>50500</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="14">
+        <v>120</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="15">
+        <v>1</v>
+      </c>
+      <c r="E22" s="15">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G18:I18"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8358689-8FB3-4337-8FA1-7EB53E27FDCF}">
+  <dimension ref="B1:I22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24" customWidth="1"/>
-    <col min="15" max="15" width="33.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
-    <col min="21" max="21" width="19" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="35.7109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="1" spans="2:9" ht="14.25" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" ht="14.25" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="4" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="G4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>43605</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2000</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="7">
+        <v>50000</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="11">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>43607</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2100</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7">
+        <v>50500</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="11">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="7">
+        <v>268</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="7">
+        <v>45</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="E15" s="7">
+        <v>595</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="1" t="s">
+    </row>
+    <row r="16" spans="2:9" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
+        <v>2</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="7">
+        <v>45</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <v>100</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="7">
         <v>5</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="E20" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
+        <v>110</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
+        <v>120</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
-        <v>43605</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="6">
-        <v>595</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="2">
-        <v>50000</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="P6" s="8">
-        <v>268</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V6" s="5">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3">
-        <v>43607</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2100</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="6">
-        <v>45</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="2">
-        <v>50500</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" s="8">
-        <v>45</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="V7" s="5">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>44</v>
+      <c r="E22" s="7">
+        <v>2500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>